--- a/outputs/ML_Results/carown_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/carown_LR/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ15" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ6" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ14" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ7" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ8" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="summ3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ16" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ5" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6513228160121627</v>
+        <v>-0.8052626800826342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6418851824328924</v>
+        <v>0.5628085360266073</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.457015220614877</v>
+        <v>1.446502376510787</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2773934262170079</v>
+        <v>0.2778815549556976</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.454127884637385</v>
+        <v>1.474758978816867</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2804466887486672</v>
+        <v>0.2706104130306624</v>
       </c>
     </row>
     <row r="5">
@@ -505,257 +505,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2745984991506216</v>
+        <v>0.2181755612753115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8380211468606312</v>
+        <v>0.8701643054623724</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8745005743796349</v>
+        <v>0.4390098092217743</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5170328329431861</v>
+        <v>0.7423007074971377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4762341129447914</v>
+        <v>0.87920917318008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7230033063789116</v>
+        <v>0.5118282248200225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.358797548238986</v>
+        <v>-0.02477814478551007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3306122263689333</v>
+        <v>0.6807428836943248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01158637292704387</v>
+        <v>0.0002954303445698496</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8541826074764879</v>
+        <v>7.113220421934491e-32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003003687168740975</v>
+        <v>0.006274141792939705</v>
       </c>
       <c r="C10" t="n">
-        <v>1.379763644160765e-32</v>
+        <v>0.0115980619294506</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005963630988561852</v>
+        <v>-0.0290996375413245</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0163605606617911</v>
+        <v>0.6626133321691418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08311982417083155</v>
+        <v>0.7074700967462177</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2138187478577925</v>
+        <v>4.071217054809454e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7241779169574982</v>
+        <v>0.5397888826767995</v>
       </c>
       <c r="C13" t="n">
-        <v>1.152519055014424e-12</v>
+        <v>3.166011244710667e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5979293975937098</v>
+        <v>-4.547499332656105e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>4.257744031634648e-06</v>
+        <v>0.002349210650797532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.506987088293646e-05</v>
+        <v>-3.555309640679031e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002572764166212407</v>
+        <v>0.01615316880501078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.824894759029047e-08</v>
+        <v>-0.01025867441903982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009058620045417404</v>
+        <v>0.6549051040779483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.006711141465442889</v>
+        <v>0.06686189433146143</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7714488920436662</v>
+        <v>1.857937253561335e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06465896332649659</v>
+        <v>-1.38080897731891</v>
       </c>
       <c r="C18" t="n">
-        <v>4.1291130644081e-05</v>
+        <v>3.03615009170167e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.33592390663813</v>
+        <v>-0.006553966441614433</v>
       </c>
       <c r="C19" t="n">
-        <v>5.827911844571407e-06</v>
+        <v>0.07106472714623578</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005805639967432408</v>
+        <v>-0.001743859565250441</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1130751114058906</v>
+        <v>0.4216984734614153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003267453085374099</v>
+        <v>1.388842933876454</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1333642414777087</v>
+        <v>0.004801477157826485</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.420615006851988</v>
+        <v>1.262329089727135</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004173266968397566</v>
+        <v>0.002230155225633515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.21863227877167</v>
+        <v>-0.9784446082602485</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003229333129653232</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.093542442757688</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6.753349750011865e-05</v>
+        <v>0.0003612536140407538</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6862865496652396</v>
+        <v>0.0192999739065052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6210630476936251</v>
+        <v>0.9903464850225669</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.495192993662539</v>
+        <v>1.010091466428016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2610481849546331</v>
+        <v>0.5132086750815303</v>
       </c>
     </row>
     <row r="4">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.468025134791069</v>
+        <v>1.115604098976077</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2717728201829976</v>
+        <v>0.4716691547224821</v>
       </c>
     </row>
     <row r="5">
@@ -840,257 +827,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2842272010051514</v>
+        <v>-0.2233033612085598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8310333145162638</v>
+        <v>0.8851764703718167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7749558630509477</v>
+        <v>0.000859547567719821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5626201685780138</v>
+        <v>0.9995565796138577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4828578101542564</v>
+        <v>0.4670779716731697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7170472158438204</v>
+        <v>0.7633127240556348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.260951617492704</v>
+        <v>-0.05009345012285754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3614996210334563</v>
+        <v>0.4179789235665433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.005936370513862638</v>
+        <v>0.0003069717820492731</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9214188353485055</v>
+        <v>7.575840563404779e-34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002847494594282808</v>
+        <v>0.007722809791206563</v>
       </c>
       <c r="C10" t="n">
-        <v>4.772485763655287e-30</v>
+        <v>0.00189640820790698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005907350282907311</v>
+        <v>-0.07815657920340352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01675755917801035</v>
+        <v>0.2418128830738351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04944318833678425</v>
+        <v>0.7266961976617679</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4548346735632415</v>
+        <v>8.857509704721909e-13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6749735498863364</v>
+        <v>0.5006055806399258</v>
       </c>
       <c r="C13" t="n">
-        <v>2.90926799396279e-11</v>
+        <v>0.0001238010072833868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5449183795850898</v>
+        <v>-4.685232153878437e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>2.626134008859043e-05</v>
+        <v>0.001830280230158623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.215337227196337e-05</v>
+        <v>-3.917979306130228e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004879464863759522</v>
+        <v>0.006788307667360179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.78675524841536e-08</v>
+        <v>-0.01367862017462507</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008581560417664088</v>
+        <v>0.5540021828190307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.007206258379659024</v>
+        <v>0.05727876717924591</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7524992395482225</v>
+        <v>0.0002714946053720544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06112543023168288</v>
+        <v>-1.560492724811826</v>
       </c>
       <c r="C18" t="n">
-        <v>8.672817358947949e-05</v>
+        <v>1.083283348542442e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.341333833895052</v>
+        <v>-0.007747794345634622</v>
       </c>
       <c r="C19" t="n">
-        <v>5.585649105220684e-06</v>
+        <v>0.03403730298732358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006591423124915335</v>
+        <v>-0.003926675973670298</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06929157842536482</v>
+        <v>0.07032954551175409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002711280266672669</v>
+        <v>1.733066055343444</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2069639722381106</v>
+        <v>0.0004870985291275492</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.597766066150644</v>
+        <v>1.251392654107606</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001152336253452488</v>
+        <v>0.002375580779241666</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.341224127683056</v>
+        <v>-1.170019246380217</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001059855506913573</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.086026964375385</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6.462286180006166e-05</v>
+        <v>1.9494407109348e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6554284149497009</v>
+        <v>-0.6294793918401245</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6364310617962881</v>
+        <v>0.6504387079534533</v>
       </c>
     </row>
     <row r="3">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.416215875105683</v>
+        <v>1.454050845734915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2859697162937366</v>
+        <v>0.2742256763551895</v>
       </c>
     </row>
     <row r="4">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.497350249548616</v>
+        <v>1.351492548836742</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2612901540901236</v>
+        <v>0.3115952191244346</v>
       </c>
     </row>
     <row r="5">
@@ -1175,257 +1149,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1879840328684595</v>
+        <v>0.3092459975493177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8875234675575429</v>
+        <v>0.8163660753606732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7760929170848262</v>
+        <v>0.5107195735085157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5611547307798088</v>
+        <v>0.7014068180989903</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4068078219098016</v>
+        <v>0.832949269154788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7595885731723416</v>
+        <v>0.5332920928043754</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.146295060279589</v>
+        <v>0.04576608492744309</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4061285383468275</v>
+        <v>0.4612122197883926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02123226898865851</v>
+        <v>0.0002974728636674199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7265389337831504</v>
+        <v>2.340879899697154e-32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002838935276419153</v>
+        <v>0.004532280071290461</v>
       </c>
       <c r="C10" t="n">
-        <v>1.295996232562385e-29</v>
+        <v>0.06802892125912925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007984192376911963</v>
+        <v>-0.1209279132903953</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001216731094299579</v>
+        <v>0.06974213245284437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08327056096928598</v>
+        <v>0.7333860590079589</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2127397686115418</v>
+        <v>5.182946799542512e-13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6912413509146498</v>
+        <v>0.596917552074431</v>
       </c>
       <c r="C13" t="n">
-        <v>1.04589967131551e-11</v>
+        <v>3.943094396562742e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.441181413337461</v>
+        <v>-5.900177842669976e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0006553994739514352</v>
+        <v>8.468278229026614e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.572419015447149e-05</v>
+        <v>-3.219341962628923e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002304539376157414</v>
+        <v>0.02754934120062959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.721123751506182e-08</v>
+        <v>-0.02575488344909729</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01027773478971971</v>
+        <v>0.2629392395485172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02440499942992774</v>
+        <v>0.06961832413486639</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2896376052930359</v>
+        <v>9.840937497256608e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.067421379838559</v>
+        <v>-1.343458952923271</v>
       </c>
       <c r="C18" t="n">
-        <v>1.87348735112851e-05</v>
+        <v>5.877758036764777e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.542335534126654</v>
+        <v>-0.005927106081002872</v>
       </c>
       <c r="C19" t="n">
-        <v>1.580590241820247e-07</v>
+        <v>0.105422508133528</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005667562227982971</v>
+        <v>-0.003316525008198406</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1193629842970829</v>
+        <v>0.1269552667900017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002577626810657893</v>
+        <v>1.908877011748615</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2349131204766121</v>
+        <v>0.0001069828545827107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.545809445369884</v>
+        <v>1.256122903789468</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001878903130853677</v>
+        <v>0.002057367360556138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.300572920435338</v>
+        <v>-1.155394628006527</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00152066855031747</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.066516732939079</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9.706681078826454e-05</v>
+        <v>2.059212869471539e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7823523517065198</v>
+        <v>-0.6461268328382567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5751818983373151</v>
+        <v>0.6418903628955931</v>
       </c>
     </row>
     <row r="3">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.445774288679572</v>
+        <v>1.469751905279034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.279612354516828</v>
+        <v>0.268981680534798</v>
       </c>
     </row>
     <row r="4">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.502837787522795</v>
+        <v>1.512537917904015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2630809402775791</v>
+        <v>0.2573286093973123</v>
       </c>
     </row>
     <row r="5">
@@ -1510,257 +1471,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1776162452671881</v>
+        <v>0.2494621270494936</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8944669679928277</v>
+        <v>0.8513719007303061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7688449023653667</v>
+        <v>0.4597822972890147</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5675786684693351</v>
+        <v>0.7298990284484779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4140066594219408</v>
+        <v>0.8950596851129203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7572232880482895</v>
+        <v>0.503161477080637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.41058326596305</v>
+        <v>-0.0004539106093474842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3130317968270201</v>
+        <v>0.99406443285961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02747006286490273</v>
+        <v>0.000284628357403869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6510342654690953</v>
+        <v>1.237836944394921e-29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003047083804860248</v>
+        <v>0.006817674076167999</v>
       </c>
       <c r="C10" t="n">
-        <v>1.776884367853217e-33</v>
+        <v>0.006032143481082525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006828721645162523</v>
+        <v>-0.09919946019166746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006168359411236957</v>
+        <v>0.138067458410864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08499861054421216</v>
+        <v>0.6681532678195057</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2043869987682021</v>
+        <v>7.383844852900658e-11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7092499942769502</v>
+        <v>0.4878434684250605</v>
       </c>
       <c r="C13" t="n">
-        <v>3.91305719343848e-12</v>
+        <v>0.0001927733932969716</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.531800362411214</v>
+        <v>-5.482690624748571e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>4.995398855580042e-05</v>
+        <v>0.0002531630140831184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.24291251258045e-05</v>
+        <v>-3.485898335309375e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004857070514788114</v>
+        <v>0.01595485718181976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.648072722580752e-08</v>
+        <v>-0.0115286496734578</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06852808615668127</v>
+        <v>0.6185015175494354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001760502958477389</v>
+        <v>0.07380216039535219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9393546268887691</v>
+        <v>3.675158746988923e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07059751996790349</v>
+        <v>-1.224750253326284</v>
       </c>
       <c r="C18" t="n">
-        <v>8.725559504200503e-06</v>
+        <v>3.279466028906242e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.303733767079165</v>
+        <v>-0.006105183252358625</v>
       </c>
       <c r="C19" t="n">
-        <v>1.059678544631347e-05</v>
+        <v>0.09676243250671959</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005655594727977043</v>
+        <v>-0.003163828913683926</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1229014346508512</v>
+        <v>0.1469244929279469</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002558183012440001</v>
+        <v>1.71083449743199</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2400325020340179</v>
+        <v>0.0005880314988653798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.535162845163149</v>
+        <v>1.250481680821014</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0018785348856716</v>
+        <v>0.002136308401105646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.147574743418396</v>
+        <v>-1.103190303143609</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004882851635423191</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.02042713575736</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0001903866062916519</v>
+        <v>5.382306862112779e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.663954860614388</v>
+        <v>-0.7053078257479874</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6319581986252878</v>
+        <v>0.611805316122102</v>
       </c>
     </row>
     <row r="3">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.485421288687388</v>
+        <v>1.500606091236417</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2633538162660719</v>
+        <v>0.25929646085835</v>
       </c>
     </row>
     <row r="4">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.536788517384069</v>
+        <v>1.505662562118343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2492229648043645</v>
+        <v>0.2597357641404681</v>
       </c>
     </row>
     <row r="5">
@@ -1845,257 +1793,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2458878268118149</v>
+        <v>0.2803764447337175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8533018963029808</v>
+        <v>0.8332807560373836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.806774133157279</v>
+        <v>0.5144875795819118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5461014247642759</v>
+        <v>0.6993807195054287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4765099654427281</v>
+        <v>0.9142862503606086</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7201631764568639</v>
+        <v>0.4942405985252327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.333856174851303</v>
+        <v>0.0008985701688633015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3353252578589652</v>
+        <v>0.9882423876841244</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0207263555061551</v>
+        <v>0.0002841810071745654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7317707429613876</v>
+        <v>1.812004068692774e-29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002862023556918211</v>
+        <v>0.00675383766729226</v>
       </c>
       <c r="C10" t="n">
-        <v>3.78039590807435e-30</v>
+        <v>0.006677142788694185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007337122323606275</v>
+        <v>-0.05911313987935914</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003159323682788896</v>
+        <v>0.3759990882046346</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06584078262029762</v>
+        <v>0.7175245153665256</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3233212153820716</v>
+        <v>9.183901410561177e-13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6799608761208682</v>
+        <v>0.5309650291956675</v>
       </c>
       <c r="C13" t="n">
-        <v>2.200210833967311e-11</v>
+        <v>4.069224661679293e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4767206058815411</v>
+        <v>-6.023712143424408e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002446897415408795</v>
+        <v>5.812304931016673e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.738037650305022e-05</v>
+        <v>-3.233884822709507e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001315749063801362</v>
+        <v>0.02634865061309365</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.564675548775699e-08</v>
+        <v>-0.01403711074174224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01387966731068626</v>
+        <v>0.5431419901510373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01193558354361795</v>
+        <v>0.0649279271342329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6042406122117665</v>
+        <v>3.917940437032828e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06467072745302491</v>
+        <v>-1.428170982369457</v>
       </c>
       <c r="C18" t="n">
-        <v>3.630048307156336e-05</v>
+        <v>1.249107036242556e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.399817304816936</v>
+        <v>-0.004477975956699987</v>
       </c>
       <c r="C19" t="n">
-        <v>2.288595136168692e-06</v>
+        <v>0.2232137654033833</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00410814249853989</v>
+        <v>-0.002997876410322454</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2577101757960092</v>
+        <v>0.1675712751772204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003277779473202415</v>
+        <v>1.581872996939388</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1273727592888318</v>
+        <v>0.001415534542697763</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.630001041667959</v>
+        <v>1.161856931934394</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0009163094312145794</v>
+        <v>0.004745989643551923</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.413774220457394</v>
+        <v>-1.058232809911171</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005660634717114414</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.115267988730227</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.992769938674588e-05</v>
+        <v>0.0001168595181802983</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2141,9 +2076,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7480800.806491405</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>-16.15735028060792</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9959284308626148</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2152,9 +2089,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-7480799.863114474</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>16.89110785600861</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9957435294123765</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2163,9 +2102,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-7480799.847682573</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>16.93902149461103</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.995731455544774</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2174,249 +2115,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-7480801.109716897</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>15.67163688309051</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9960508270952361</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7480800.467527411</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>15.89741742990788</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9959939320188002</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7480800.826986895</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>16.26238405244298</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9959019630966895</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7480800.239820844</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>-0.01946627270222755</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.744489412421664</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.002189159487984624</v>
+        <v>0.0002851628770651345</v>
       </c>
       <c r="C9" t="n">
-        <v>0.971251951266385</v>
+        <v>2.998544028968915e-30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003041544258232473</v>
+        <v>0.007618720905509384</v>
       </c>
       <c r="C10" t="n">
-        <v>3.9624083130798e-33</v>
+        <v>0.002160147409195438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006011899413775399</v>
+        <v>-0.07618945613885329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01579595136356898</v>
+        <v>0.2545664076471886</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1081931878539905</v>
+        <v>0.7053418809737505</v>
       </c>
       <c r="C12" t="n">
-        <v>0.107960112766418</v>
+        <v>4.033004140218741e-12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7794512991153977</v>
+        <v>0.5093601290651361</v>
       </c>
       <c r="C13" t="n">
-        <v>1.670780019250116e-14</v>
+        <v>9.562277068018352e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6120273971251406</v>
+        <v>-4.59222024928824e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>2.643775698009536e-06</v>
+        <v>0.002213260643563089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.711314392842091e-05</v>
+        <v>-3.716888308406856e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001495756344594849</v>
+        <v>0.01065895813329779</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.989299752460669e-08</v>
+        <v>-0.0127240142615304</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006278185148758718</v>
+        <v>0.5797016630923246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01848438073686157</v>
+        <v>0.05912851793323599</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4255032575544639</v>
+        <v>0.000153467409659416</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06925120863612584</v>
+        <v>-1.347245273163799</v>
       </c>
       <c r="C18" t="n">
-        <v>1.29238499973288e-05</v>
+        <v>4.373640601731766e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.530591828373561</v>
+        <v>-0.006067303664947973</v>
       </c>
       <c r="C19" t="n">
-        <v>2.135785003601144e-07</v>
+        <v>0.09468991446313368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006058375179326498</v>
+        <v>-0.00250572285595369</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09999100200145979</v>
+        <v>0.2419357932994215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.004082556986606687</v>
+        <v>1.453810381431565</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06190095370860862</v>
+        <v>0.003239388132089304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.605487796345068</v>
+        <v>1.244195426054013</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001206671052698794</v>
+        <v>0.002541630437452513</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.203744274387633</v>
+        <v>-1.010062070501035</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003392247904994574</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.068119192261455</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0001018418940602151</v>
+        <v>0.0002196295926618889</v>
       </c>
     </row>
   </sheetData>
@@ -2430,7 +2366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2462,10 +2398,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5012380973473639</v>
+        <v>-0.7653000242894589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7195853625498432</v>
+        <v>0.5854763114573182</v>
       </c>
     </row>
     <row r="3">
@@ -2475,10 +2411,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.430366758342791</v>
+        <v>1.395842405611019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2846983142403869</v>
+        <v>0.2991260391310898</v>
       </c>
     </row>
     <row r="4">
@@ -2488,10 +2424,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.475782697853232</v>
+        <v>1.457040900717351</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2717102761672209</v>
+        <v>0.2804650417222257</v>
       </c>
     </row>
     <row r="5">
@@ -2501,257 +2437,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.202828698565292</v>
+        <v>0.1533459279026457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8795791423258876</v>
+        <v>0.9093028653142154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8890534708922734</v>
+        <v>0.3830967010474935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5089043777065418</v>
+        <v>0.7760099235397034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4283147963116523</v>
+        <v>0.8174780345451345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7490839736200849</v>
+        <v>0.545254783029065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.368353090582582</v>
+        <v>-0.007759872247846861</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3277556596478459</v>
+        <v>0.8989637197904722</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.03673370500154955</v>
+        <v>0.0002951592824449824</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5454204488373547</v>
+        <v>1.507862309863322e-31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002993118515752215</v>
+        <v>0.007259828475187685</v>
       </c>
       <c r="C10" t="n">
-        <v>1.315686348854578e-32</v>
+        <v>0.003395865390176543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.006098399117740284</v>
+        <v>-0.06436285129175301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01442831144786409</v>
+        <v>0.3358724318237002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0919289965562885</v>
+        <v>0.756198870728611</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1710138041015296</v>
+        <v>8.247766891095588e-14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7520776174732775</v>
+        <v>0.5611718389817575</v>
       </c>
       <c r="C13" t="n">
-        <v>1.286917698515364e-13</v>
+        <v>1.42986587501394e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5667952887646949</v>
+        <v>-4.487884353871345e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>1.412783689193015e-05</v>
+        <v>0.002669292170468275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.780809705285954e-05</v>
+        <v>-3.970152775967569e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001394908962280942</v>
+        <v>0.006440640513913652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.689333643934354e-08</v>
+        <v>-0.01230637753972498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06558635493870565</v>
+        <v>0.5949878435926632</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.009256606728098834</v>
+        <v>0.06872185440845599</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6893322721816559</v>
+        <v>1.300009565844633e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06371401108195554</v>
+        <v>-1.39988094359719</v>
       </c>
       <c r="C18" t="n">
-        <v>5.387856256859363e-05</v>
+        <v>1.911453450949699e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.533054928147049</v>
+        <v>-0.006499629683727909</v>
       </c>
       <c r="C19" t="n">
-        <v>1.859158842197471e-07</v>
+        <v>0.07641002751006554</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.007385073445814325</v>
+        <v>-0.002571400819298566</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04426518525725192</v>
+        <v>0.2369596089839345</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.003280422211813478</v>
+        <v>1.635921693225402</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1324387263973379</v>
+        <v>0.0009197113497196343</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.576674100901556</v>
+        <v>1.580154034639268</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001424887673377454</v>
+        <v>0.0001313133123796946</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.157137563423074</v>
+        <v>-1.137600527562286</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005370033209524719</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.067516269838944</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9.721298297844843e-05</v>
+        <v>3.034587995732667e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2765,7 +2688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2797,10 +2720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.96868064124706</v>
+        <v>-0.1866488306935667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9813761070445445</v>
+        <v>0.9091794634438971</v>
       </c>
     </row>
     <row r="3">
@@ -2810,10 +2733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10.48467731537383</v>
+        <v>0.8654707397070988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9821977575702475</v>
+        <v>0.58502977884025</v>
       </c>
     </row>
     <row r="4">
@@ -2823,10 +2746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-10.53385269799002</v>
+        <v>0.8828064219076952</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9821142758343183</v>
+        <v>0.5787289559973319</v>
       </c>
     </row>
     <row r="5">
@@ -2836,257 +2759,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-11.60884223952381</v>
+        <v>-0.3806724764191622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9802893746311678</v>
+        <v>0.8103903011874417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11.13902605589991</v>
+        <v>-0.1891930353223735</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9810869226701049</v>
+        <v>0.9051020985910339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.43355693376293</v>
+        <v>0.2482935864732389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9805869320283696</v>
+        <v>0.8760033591651533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.60706227803275</v>
+        <v>-0.02804481420227016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9819899987637759</v>
+        <v>0.6539112644517406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03521284273214351</v>
+        <v>0.0002972150058849409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5712827777506058</v>
+        <v>3.270922950740888e-32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0003042710540642307</v>
+        <v>0.006334289574799862</v>
       </c>
       <c r="C10" t="n">
-        <v>7.816713527952165e-34</v>
+        <v>0.01035579385531181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005833988881339367</v>
+        <v>-0.08779067050221795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01779113555578745</v>
+        <v>0.1902843249785221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07448490022869816</v>
+        <v>0.7626260264049878</v>
       </c>
       <c r="C12" t="n">
-        <v>0.262443265507033</v>
+        <v>8.107566078781508e-14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7497001739067403</v>
+        <v>0.5939980271226394</v>
       </c>
       <c r="C13" t="n">
-        <v>1.381931183034446e-13</v>
+        <v>4.650933483815701e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5804778383135647</v>
+        <v>-4.275559971272632e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>6.780063434597453e-06</v>
+        <v>0.004570141884242015</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.135727478968238e-05</v>
+        <v>-3.598642207555698e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005966548033382019</v>
+        <v>0.01357725775553501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.948159819241408e-08</v>
+        <v>-0.01077295700264488</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006647123431285397</v>
+        <v>0.6414523039352922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01381749184999705</v>
+        <v>0.06529681810200735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5498823584153467</v>
+        <v>3.48001979167022e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.061168645522217</v>
+        <v>-1.597278185349486</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001003607494562998</v>
+        <v>6.983729029161055e-08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.237744887881252</v>
+        <v>-0.003867797140635839</v>
       </c>
       <c r="C19" t="n">
-        <v>2.722803414427715e-05</v>
+        <v>0.2907971076616618</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.005665069502313064</v>
+        <v>-0.00222178668467501</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1215599390726479</v>
+        <v>0.30715701875988</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.001350690745075469</v>
+        <v>1.308265347871746</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5328074653029267</v>
+        <v>0.007973951482912812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.59038246506432</v>
+        <v>1.206351718075186</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00130860911149195</v>
+        <v>0.003346661742355781</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.387845311007386</v>
+        <v>-1.009392272295159</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0007703931733553097</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.103249793719898</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.749297808253778e-05</v>
+        <v>0.0002119423778912379</v>
       </c>
     </row>
   </sheetData>
@@ -3100,7 +3010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3132,10 +3042,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6881902953291665</v>
+        <v>-0.7109790778000366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6233666389893822</v>
+        <v>0.612178298339087</v>
       </c>
     </row>
     <row r="3">
@@ -3145,10 +3055,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.442769955552781</v>
+        <v>1.430890511671515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2825958298173398</v>
+        <v>0.2872210802094739</v>
       </c>
     </row>
     <row r="4">
@@ -3158,10 +3068,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.522472009216935</v>
+        <v>1.481487298259201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2589093649986648</v>
+        <v>0.2725257737192569</v>
       </c>
     </row>
     <row r="5">
@@ -3171,257 +3081,244 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1738341698049711</v>
+        <v>0.1896790640845526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8971263868758235</v>
+        <v>0.8879546635113833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female_Parent]</t>
+          <t>HHType_simp[T.Single_Male]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7177689702691391</v>
+        <v>0.4331440827198926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5952129201348106</v>
+        <v>0.7477027901587509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>HHType_simp[T.Single_Parent]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3853223194785831</v>
+        <v>0.9389037144757437</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7744762478010712</v>
+        <v>0.4873243042716568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male_Parent]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.296874386552817</v>
+        <v>-0.01541882631427568</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3536169421137514</v>
+        <v>0.7995098003024425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02643500120758391</v>
+        <v>0.0002981713167473047</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6687311409360492</v>
+        <v>3.61186521104255e-32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000271935224875696</v>
+        <v>0.006739022047246698</v>
       </c>
       <c r="C10" t="n">
-        <v>5.182830786663744e-27</v>
+        <v>0.006456391538696283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.008073250521246531</v>
+        <v>-0.05819254651467434</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001193369556005009</v>
+        <v>0.3813699282469896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03346670830617786</v>
+        <v>0.7591316028967067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6166382711610034</v>
+        <v>5.767609304865017e-14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7626988332304184</v>
+        <v>0.5912804767403922</v>
       </c>
       <c r="C13" t="n">
-        <v>6.411048320280353e-14</v>
+        <v>4.999353073669867e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5484050884338002</v>
+        <v>-5.152359402300327e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>2.175188860776989e-05</v>
+        <v>0.0005923262366141074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.189172355478095e-05</v>
+        <v>-3.373678017637522e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005645613645048506</v>
+        <v>0.0209160148884922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.080695846574852e-08</v>
+        <v>-0.005865281877440498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006022982841772591</v>
+        <v>0.7996533257841374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02340590713344001</v>
+        <v>0.06180287986099717</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3117740644565972</v>
+        <v>8.602499475594296e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.06268474568163168</v>
+        <v>-1.367574702686514</v>
       </c>
       <c r="C18" t="n">
-        <v>6.788012566952437e-05</v>
+        <v>3.71237068451157e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.425813574920926</v>
+        <v>-0.006512838624005921</v>
       </c>
       <c r="C19" t="n">
-        <v>1.267444248710814e-06</v>
+        <v>0.07424103167412208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>StreetLength</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.007571935867381046</v>
+        <v>-0.002955802322973483</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03907137177481092</v>
+        <v>0.1714671300016705</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002725046617032342</v>
+        <v>1.571017534043273</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2081070326806306</v>
+        <v>0.001457477463861389</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LU_UrbFab</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.863433756231939</v>
+        <v>1.327216620177751</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001639370042671763</v>
+        <v>0.001351758481286366</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LU_Comm</t>
+          <t>LU_Urban</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.391107002846668</v>
+        <v>-1.045157540172502</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0007335984618621918</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-1.064454657563512</v>
-      </c>
-      <c r="C24" t="n">
-        <v>9.553286269076941e-05</v>
+        <v>0.0001392285037595215</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR/Germany_other.xlsx
+++ b/outputs/ML_Results/carown_LR/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ10" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ8" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ0" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8052626800826342</v>
+        <v>-0.4243636629232816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5628085360266073</v>
+        <v>0.798219854410027</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.446502376510787</v>
+        <v>0.8742129440741078</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2778815549556976</v>
+        <v>0.5851722523587179</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.474758978816867</v>
+        <v>1.060859301216261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2706104130306624</v>
+        <v>0.5096033400296811</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2181755612753115</v>
+        <v>-0.3479172045388123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8701643054623724</v>
+        <v>0.8282537980304184</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4390098092217743</v>
+        <v>-0.1217643990686017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7423007074971377</v>
+        <v>0.9394916577723701</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.87920917318008</v>
+        <v>0.2002211151863326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5118282248200225</v>
+        <v>0.9009280793337782</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02477814478551007</v>
+        <v>-0.08959795388004786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6807428836943248</v>
+        <v>0.2223632416295082</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002954303445698496</v>
+        <v>0.0005104152727709657</v>
       </c>
       <c r="C9" t="n">
-        <v>7.113220421934491e-32</v>
+        <v>1.511260390179557e-63</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006274141792939705</v>
+        <v>0.009051788646237645</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0115980619294506</v>
+        <v>0.0008062653047823078</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0290996375413245</v>
+        <v>-0.1820040854889209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6626133321691418</v>
+        <v>0.01044012607352036</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7074700967462177</v>
+        <v>0.81021682738922</v>
       </c>
       <c r="C12" t="n">
-        <v>4.071217054809454e-12</v>
+        <v>3.919416002181223e-14</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5397888826767995</v>
+        <v>0.2591170652767112</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166011244710667e-05</v>
+        <v>0.06037004442028996</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.547499332656105e-05</v>
+        <v>-5.134292847833611e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002349210650797532</v>
+        <v>0.0009518291279877662</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.555309640679031e-08</v>
+        <v>-2.064388343054366e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01615316880501078</v>
+        <v>0.1869271944639156</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01025867441903982</v>
+        <v>0.01127095230283927</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6549051040779483</v>
+        <v>0.6541483380468234</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06686189433146143</v>
+        <v>0.0869085651529721</v>
       </c>
       <c r="C17" t="n">
-        <v>1.857937253561335e-05</v>
+        <v>3.039763814956007e-07</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.38080897731891</v>
+        <v>-1.406667345217116</v>
       </c>
       <c r="C18" t="n">
-        <v>3.03615009170167e-06</v>
+        <v>7.877374563171531e-06</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006553966441614433</v>
+        <v>-0.009842140736898999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07106472714623578</v>
+        <v>0.01384710392559362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.001743859565250441</v>
+        <v>-0.003826690173774339</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4216984734614153</v>
+        <v>0.1037077996943826</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.388842933876454</v>
+        <v>0.4985993148202589</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004801477157826485</v>
+        <v>0.1761829466310516</v>
       </c>
     </row>
     <row r="22">
@@ -726,23 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.262329089727135</v>
+        <v>0.002199501766126337</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002230155225633515</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.9784446082602485</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0003612536140407538</v>
+        <v>0.9945415429126517</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0192999739065052</v>
+        <v>-1.086151981348478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9903464850225669</v>
+        <v>0.4488652153402993</v>
       </c>
     </row>
     <row r="3">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.010091466428016</v>
+        <v>1.323823823383789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5132086750815303</v>
+        <v>0.3332555044268218</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.115604098976077</v>
+        <v>1.474533224988986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4716691547224821</v>
+        <v>0.283864005387796</v>
       </c>
     </row>
     <row r="5">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2233033612085598</v>
+        <v>0.1511349342597691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8851764703718167</v>
+        <v>0.9121807360040631</v>
       </c>
     </row>
     <row r="6">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000859547567719821</v>
+        <v>0.4291221183986465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9995565796138577</v>
+        <v>0.7542421304402194</v>
       </c>
     </row>
     <row r="7">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4670779716731697</v>
+        <v>0.6393254815791174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7633127240556348</v>
+        <v>0.6421837821349758</v>
       </c>
     </row>
     <row r="8">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.05009345012285754</v>
+        <v>-0.04241568976596242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4179789235665433</v>
+        <v>0.5486999321671051</v>
       </c>
     </row>
     <row r="9">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003069717820492731</v>
+        <v>0.0004978006249782331</v>
       </c>
       <c r="C9" t="n">
-        <v>7.575840563404779e-34</v>
+        <v>2.787242841734438e-61</v>
       </c>
     </row>
     <row r="10">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007722809791206563</v>
+        <v>0.007729574933440251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00189640820790698</v>
+        <v>0.00390099142593696</v>
       </c>
     </row>
     <row r="11">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07815657920340352</v>
+        <v>-0.09988879981345412</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2418128830738351</v>
+        <v>0.1564458243487198</v>
       </c>
     </row>
     <row r="12">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7266961976617679</v>
+        <v>0.8477981781031829</v>
       </c>
       <c r="C12" t="n">
-        <v>8.857509704721909e-13</v>
+        <v>1.544505875745745e-15</v>
       </c>
     </row>
     <row r="13">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5006055806399258</v>
+        <v>0.3559703190049269</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001238010072833868</v>
+        <v>0.009161954817653917</v>
       </c>
     </row>
     <row r="14">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.685232153878437e-05</v>
+        <v>-4.725100697854248e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001830280230158623</v>
+        <v>0.002300759760269056</v>
       </c>
     </row>
     <row r="15">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.917979306130228e-08</v>
+        <v>-2.27117046914282e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006788307667360179</v>
+        <v>0.1514210746984785</v>
       </c>
     </row>
     <row r="16">
@@ -970,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01367862017462507</v>
+        <v>0.002777075255159134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5540021828190307</v>
+        <v>0.911681932244361</v>
       </c>
     </row>
     <row r="17">
@@ -983,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05727876717924591</v>
+        <v>0.09546780677604239</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002714946053720544</v>
+        <v>1.45571291798196e-08</v>
       </c>
     </row>
     <row r="18">
@@ -996,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.560492724811826</v>
+        <v>-1.72184546904808</v>
       </c>
       <c r="C18" t="n">
-        <v>1.083283348542442e-07</v>
+        <v>3.249982572740163e-08</v>
       </c>
     </row>
     <row r="19">
@@ -1009,23 +996,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007747794345634622</v>
+        <v>-0.007675436958777456</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03403730298732358</v>
+        <v>0.05370378281814721</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003926675973670298</v>
+        <v>-0.003534518239995371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07032954551175409</v>
+        <v>0.1321117736652766</v>
       </c>
     </row>
     <row r="21">
@@ -1035,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.733066055343444</v>
+        <v>0.3570116917130017</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004870985291275492</v>
+        <v>0.3305289497421604</v>
       </c>
     </row>
     <row r="22">
@@ -1048,23 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.251392654107606</v>
+        <v>0.0648786032437135</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002375580779241666</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.170019246380217</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.9494407109348e-05</v>
+        <v>0.8414734615967516</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6294793918401245</v>
+        <v>-0.8660553420481917</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6504387079534533</v>
+        <v>0.5508668110950015</v>
       </c>
     </row>
     <row r="3">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.454050845734915</v>
+        <v>1.366926314605128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2742256763551895</v>
+        <v>0.3237086872539922</v>
       </c>
     </row>
     <row r="4">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.351492548836742</v>
+        <v>1.535913958071382</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3115952191244346</v>
+        <v>0.2701442208890351</v>
       </c>
     </row>
     <row r="5">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3092459975493177</v>
+        <v>0.114951934825112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8163660753606732</v>
+        <v>0.9339628789923596</v>
       </c>
     </row>
     <row r="6">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5107195735085157</v>
+        <v>0.373173130632831</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7014068180989903</v>
+        <v>0.7879945260634684</v>
       </c>
     </row>
     <row r="7">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.832949269154788</v>
+        <v>0.8120746977602343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5332920928043754</v>
+        <v>0.5599822715073262</v>
       </c>
     </row>
     <row r="8">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04576608492744309</v>
+        <v>-0.06553642047331024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4612122197883926</v>
+        <v>0.359842129898239</v>
       </c>
     </row>
     <row r="9">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002974728636674199</v>
+        <v>0.0004930186106153967</v>
       </c>
       <c r="C9" t="n">
-        <v>2.340879899697154e-32</v>
+        <v>4.148340320063387e-60</v>
       </c>
     </row>
     <row r="10">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004532280071290461</v>
+        <v>0.00976492934945531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06802892125912925</v>
+        <v>0.0003034133761173874</v>
       </c>
     </row>
     <row r="11">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1209279132903953</v>
+        <v>-0.1286480411705949</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06974213245284437</v>
+        <v>0.07090596991298713</v>
       </c>
     </row>
     <row r="12">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7333860590079589</v>
+        <v>0.837653359128266</v>
       </c>
       <c r="C12" t="n">
-        <v>5.182946799542512e-13</v>
+        <v>8.661206785172269e-15</v>
       </c>
     </row>
     <row r="13">
@@ -1253,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.596917552074431</v>
+        <v>0.3149954625500732</v>
       </c>
       <c r="C13" t="n">
-        <v>3.943094396562742e-06</v>
+        <v>0.0236198131239718</v>
       </c>
     </row>
     <row r="14">
@@ -1266,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.900177842669976e-05</v>
+        <v>-4.805483198402628e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>8.468278229026614e-05</v>
+        <v>0.002032748421626249</v>
       </c>
     </row>
     <row r="15">
@@ -1279,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.219341962628923e-08</v>
+        <v>-2.531438846596676e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02754934120062959</v>
+        <v>0.1065099928460105</v>
       </c>
     </row>
     <row r="16">
@@ -1292,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02575488344909729</v>
+        <v>0.01718563744415141</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2629392395485172</v>
+        <v>0.4950731746959248</v>
       </c>
     </row>
     <row r="17">
@@ -1305,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06961832413486639</v>
+        <v>0.08240349993483097</v>
       </c>
       <c r="C17" t="n">
-        <v>9.840937497256608e-06</v>
+        <v>1.177292598538041e-06</v>
       </c>
     </row>
     <row r="18">
@@ -1318,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.343458952923271</v>
+        <v>-1.455214051234775</v>
       </c>
       <c r="C18" t="n">
-        <v>5.877758036764777e-06</v>
+        <v>3.376826608278778e-06</v>
       </c>
     </row>
     <row r="19">
@@ -1331,23 +1305,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005927106081002872</v>
+        <v>-0.01094892414356155</v>
       </c>
       <c r="C19" t="n">
-        <v>0.105422508133528</v>
+        <v>0.00619987426917606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003316525008198406</v>
+        <v>-0.004545495588290685</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1269552667900017</v>
+        <v>0.05570616320676525</v>
       </c>
     </row>
     <row r="21">
@@ -1357,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.908877011748615</v>
+        <v>0.4385968791566145</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001069828545827107</v>
+        <v>0.2343156626418368</v>
       </c>
     </row>
     <row r="22">
@@ -1370,23 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.256122903789468</v>
+        <v>0.007516626929020852</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002057367360556138</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.155394628006527</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.059212869471539e-05</v>
+        <v>0.9815739921959711</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6461268328382567</v>
+        <v>-16.37959239501854</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6418903628955931</v>
+        <v>0.9961409113967011</v>
       </c>
     </row>
     <row r="3">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.469751905279034</v>
+        <v>16.84127318011505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268981680534798</v>
+        <v>0.9960321386604736</v>
       </c>
     </row>
     <row r="4">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.512537917904015</v>
+        <v>17.04223804963526</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2573286093973123</v>
+        <v>0.9959847910535579</v>
       </c>
     </row>
     <row r="5">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2494621270494936</v>
+        <v>15.58845700843931</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8513719007303061</v>
+        <v>0.9963273042512173</v>
       </c>
     </row>
     <row r="6">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4597822972890147</v>
+        <v>15.90343114818129</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7298990284484779</v>
+        <v>0.9962530957671077</v>
       </c>
     </row>
     <row r="7">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8950596851129203</v>
+        <v>16.23368137140249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.503161477080637</v>
+        <v>0.996175288246744</v>
       </c>
     </row>
     <row r="8">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0004539106093474842</v>
+        <v>-0.08503583589562548</v>
       </c>
       <c r="C8" t="n">
-        <v>0.99406443285961</v>
+        <v>0.2320272208688644</v>
       </c>
     </row>
     <row r="9">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000284628357403869</v>
+        <v>0.0005042967082253355</v>
       </c>
       <c r="C9" t="n">
-        <v>1.237836944394921e-29</v>
+        <v>4.269796242762537e-63</v>
       </c>
     </row>
     <row r="10">
@@ -1536,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006817674076167999</v>
+        <v>0.008001241341365754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006032143481082525</v>
+        <v>0.002949403643478083</v>
       </c>
     </row>
     <row r="11">
@@ -1549,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09919946019166746</v>
+        <v>-0.171609484969568</v>
       </c>
       <c r="C11" t="n">
-        <v>0.138067458410864</v>
+        <v>0.01584393652152533</v>
       </c>
     </row>
     <row r="12">
@@ -1562,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6681532678195057</v>
+        <v>0.7749128326173912</v>
       </c>
       <c r="C12" t="n">
-        <v>7.383844852900658e-11</v>
+        <v>3.860051062166705e-13</v>
       </c>
     </row>
     <row r="13">
@@ -1575,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4878434684250605</v>
+        <v>0.2964306555508469</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001927733932969716</v>
+        <v>0.03212518493102407</v>
       </c>
     </row>
     <row r="14">
@@ -1588,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.482690624748571e-05</v>
+        <v>-5.276943213411192e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0002531630140831184</v>
+        <v>0.0006914429599640659</v>
       </c>
     </row>
     <row r="15">
@@ -1601,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.485898335309375e-08</v>
+        <v>-2.09505078127529e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01595485718181976</v>
+        <v>0.1833923291946958</v>
       </c>
     </row>
     <row r="16">
@@ -1614,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0115286496734578</v>
+        <v>0.006512352765672753</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6185015175494354</v>
+        <v>0.7946170759410639</v>
       </c>
     </row>
     <row r="17">
@@ -1627,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07380216039535219</v>
+        <v>0.08868083110675073</v>
       </c>
       <c r="C17" t="n">
-        <v>3.675158746988923e-06</v>
+        <v>1.224212784364523e-07</v>
       </c>
     </row>
     <row r="18">
@@ -1640,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.224750253326284</v>
+        <v>-1.377660778348481</v>
       </c>
       <c r="C18" t="n">
-        <v>3.279466028906242e-05</v>
+        <v>1.117407457273061e-05</v>
       </c>
     </row>
     <row r="19">
@@ -1653,23 +1614,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006105183252358625</v>
+        <v>-0.009409075538244074</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09676243250671959</v>
+        <v>0.01884059727943451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.003163828913683926</v>
+        <v>-0.003528771623753404</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1469244929279469</v>
+        <v>0.1342381366020181</v>
       </c>
     </row>
     <row r="21">
@@ -1679,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.71083449743199</v>
+        <v>0.4400350984497851</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005880314988653798</v>
+        <v>0.2332308879123858</v>
       </c>
     </row>
     <row r="22">
@@ -1692,23 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.250481680821014</v>
+        <v>0.102968343658936</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002136308401105646</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.103190303143609</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5.382306862112779e-05</v>
+        <v>0.7485048822480478</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7053078257479874</v>
+        <v>-0.503002900906211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.611805316122102</v>
+        <v>0.760284824626409</v>
       </c>
     </row>
     <row r="3">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.500606091236417</v>
+        <v>0.8961744656371015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.25929646085835</v>
+        <v>0.5733647203885981</v>
       </c>
     </row>
     <row r="4">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.505662562118343</v>
+        <v>1.034104556401019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2597357641404681</v>
+        <v>0.5175710346815465</v>
       </c>
     </row>
     <row r="5">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2803764447337175</v>
+        <v>-0.4034586538857923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8332807560373836</v>
+        <v>0.800094779174598</v>
       </c>
     </row>
     <row r="6">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5144875795819118</v>
+        <v>-0.06567907039793047</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6993807195054287</v>
+        <v>0.9671268327708611</v>
       </c>
     </row>
     <row r="7">
@@ -1819,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9142862503606086</v>
+        <v>0.3056381391848095</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4942405985252327</v>
+        <v>0.8483488187301718</v>
       </c>
     </row>
     <row r="8">
@@ -1832,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008985701688633015</v>
+        <v>-0.07845932081577503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9882423876841244</v>
+        <v>0.2636150748040528</v>
       </c>
     </row>
     <row r="9">
@@ -1845,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002841810071745654</v>
+        <v>0.0004802184110018472</v>
       </c>
       <c r="C9" t="n">
-        <v>1.812004068692774e-29</v>
+        <v>3.43462418292957e-58</v>
       </c>
     </row>
     <row r="10">
@@ -1858,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00675383766729226</v>
+        <v>0.00854645002163759</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006677142788694185</v>
+        <v>0.001586982072948138</v>
       </c>
     </row>
     <row r="11">
@@ -1871,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05911313987935914</v>
+        <v>-0.1294407635426284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3759990882046346</v>
+        <v>0.0693478077626685</v>
       </c>
     </row>
     <row r="12">
@@ -1884,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7175245153665256</v>
+        <v>0.8978598032866361</v>
       </c>
       <c r="C12" t="n">
-        <v>9.183901410561177e-13</v>
+        <v>3.167693158240906e-17</v>
       </c>
     </row>
     <row r="13">
@@ -1897,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5309650291956675</v>
+        <v>0.3737133780689666</v>
       </c>
       <c r="C13" t="n">
-        <v>4.069224661679293e-05</v>
+        <v>0.006554467361421182</v>
       </c>
     </row>
     <row r="14">
@@ -1910,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.023712143424408e-05</v>
+        <v>-4.688593232917798e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>5.812304931016673e-05</v>
+        <v>0.002315050491289776</v>
       </c>
     </row>
     <row r="15">
@@ -1923,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.233884822709507e-08</v>
+        <v>-2.055764772215072e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02634865061309365</v>
+        <v>0.1907120645841294</v>
       </c>
     </row>
     <row r="16">
@@ -1936,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01403711074174224</v>
+        <v>0.007072265604767533</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5431419901510373</v>
+        <v>0.7785513113387559</v>
       </c>
     </row>
     <row r="17">
@@ -1949,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0649279271342329</v>
+        <v>0.09298785337521767</v>
       </c>
       <c r="C17" t="n">
-        <v>3.917940437032828e-05</v>
+        <v>4.745190388367354e-08</v>
       </c>
     </row>
     <row r="18">
@@ -1962,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.428170982369457</v>
+        <v>-1.645768531729923</v>
       </c>
       <c r="C18" t="n">
-        <v>1.249107036242556e-06</v>
+        <v>1.821970686562076e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1975,23 +1923,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.004477975956699987</v>
+        <v>-0.007446639017054751</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2232137654033833</v>
+        <v>0.06129835174022009</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002997876410322454</v>
+        <v>-0.003725464171268802</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1675712751772204</v>
+        <v>0.1133034113464239</v>
       </c>
     </row>
     <row r="21">
@@ -2001,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.581872996939388</v>
+        <v>0.1679636901280385</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001415534542697763</v>
+        <v>0.6463549330166222</v>
       </c>
     </row>
     <row r="22">
@@ -2014,23 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.161856931934394</v>
+        <v>0.09475800325055575</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004745989643551923</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.058232809911171</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0001168595181802983</v>
+        <v>0.770964359651146</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.15735028060792</v>
+        <v>-1.042124414910794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9959284308626148</v>
+        <v>0.4667862098903872</v>
       </c>
     </row>
     <row r="3">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.89110785600861</v>
+        <v>1.390750756456341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9957435294123765</v>
+        <v>0.3078063647706812</v>
       </c>
     </row>
     <row r="4">
@@ -2102,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.93902149461103</v>
+        <v>1.533029310418023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.995731455544774</v>
+        <v>0.2636925673396001</v>
       </c>
     </row>
     <row r="5">
@@ -2115,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.67163688309051</v>
+        <v>0.1433115735424497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9960508270952361</v>
+        <v>0.9164390098365077</v>
       </c>
     </row>
     <row r="6">
@@ -2128,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.89741742990788</v>
+        <v>0.4675583636172128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9959939320188002</v>
+        <v>0.732198347781343</v>
       </c>
     </row>
     <row r="7">
@@ -2141,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.26238405244298</v>
+        <v>0.6586682135401819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9959019630966895</v>
+        <v>0.6310052641199202</v>
       </c>
     </row>
     <row r="8">
@@ -2154,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01946627270222755</v>
+        <v>-0.03162584963764769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.744489412421664</v>
+        <v>0.6626549296580577</v>
       </c>
     </row>
     <row r="9">
@@ -2167,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002851628770651345</v>
+        <v>0.0004883630596948524</v>
       </c>
       <c r="C9" t="n">
-        <v>2.998544028968915e-30</v>
+        <v>5.069628136861065e-58</v>
       </c>
     </row>
     <row r="10">
@@ -2180,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007618720905509384</v>
+        <v>0.0086287999942775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002160147409195438</v>
+        <v>0.001510472414876151</v>
       </c>
     </row>
     <row r="11">
@@ -2193,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07618945613885329</v>
+        <v>-0.1374436517064476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2545664076471886</v>
+        <v>0.05508663013878375</v>
       </c>
     </row>
     <row r="12">
@@ -2206,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7053418809737505</v>
+        <v>0.8087533977429244</v>
       </c>
       <c r="C12" t="n">
-        <v>4.033004140218741e-12</v>
+        <v>6.304743583465699e-14</v>
       </c>
     </row>
     <row r="13">
@@ -2219,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5093601290651361</v>
+        <v>0.3027257128056383</v>
       </c>
       <c r="C13" t="n">
-        <v>9.562277068018352e-05</v>
+        <v>0.02999822013374287</v>
       </c>
     </row>
     <row r="14">
@@ -2232,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.59222024928824e-05</v>
+        <v>-4.895285292855531e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002213260643563089</v>
+        <v>0.001886831612988988</v>
       </c>
     </row>
     <row r="15">
@@ -2245,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.716888308406856e-08</v>
+        <v>-1.504467044116031e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01065895813329779</v>
+        <v>0.3422604502537403</v>
       </c>
     </row>
     <row r="16">
@@ -2258,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0127240142615304</v>
+        <v>-0.003123853151686047</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5797016630923246</v>
+        <v>0.9020273151245845</v>
       </c>
     </row>
     <row r="17">
@@ -2271,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05912851793323599</v>
+        <v>0.08877857331800916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000153467409659416</v>
+        <v>2.137598666067717e-07</v>
       </c>
     </row>
     <row r="18">
@@ -2284,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.347245273163799</v>
+        <v>-1.700914905725428</v>
       </c>
       <c r="C18" t="n">
-        <v>4.373640601731766e-06</v>
+        <v>5.20022705580963e-08</v>
       </c>
     </row>
     <row r="19">
@@ -2297,23 +2232,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006067303664947973</v>
+        <v>-0.00900541835679566</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09468991446313368</v>
+        <v>0.02561846514044125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00250572285595369</v>
+        <v>-0.00334264756427975</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2419357932994215</v>
+        <v>0.1598932567762282</v>
       </c>
     </row>
     <row r="21">
@@ -2323,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.453810381431565</v>
+        <v>0.4625582730908633</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003239388132089304</v>
+        <v>0.2129664402511514</v>
       </c>
     </row>
     <row r="22">
@@ -2336,23 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.244195426054013</v>
+        <v>-0.0254435772773517</v>
       </c>
       <c r="C22" t="n">
-        <v>0.002541630437452513</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.010062070501035</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0002196295926618889</v>
+        <v>0.9375228375048478</v>
       </c>
     </row>
   </sheetData>
@@ -2366,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7653000242894589</v>
+        <v>-1.408776199468974</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5854763114573182</v>
+        <v>0.3278060677379981</v>
       </c>
     </row>
     <row r="3">
@@ -2411,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.395842405611019</v>
+        <v>1.323313492639765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2991260391310898</v>
+        <v>0.3347276474170552</v>
       </c>
     </row>
     <row r="4">
@@ -2424,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.457040900717351</v>
+        <v>1.358223893234059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2804650417222257</v>
+        <v>0.3249012243519389</v>
       </c>
     </row>
     <row r="5">
@@ -2437,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1533459279026457</v>
+        <v>0.1116438723344182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9093028653142154</v>
+        <v>0.9352453765241923</v>
       </c>
     </row>
     <row r="6">
@@ -2450,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3830967010474935</v>
+        <v>0.420577471589437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7760099235397034</v>
+        <v>0.7596113403083975</v>
       </c>
     </row>
     <row r="7">
@@ -2463,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8174780345451345</v>
+        <v>0.6593834985062097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.545254783029065</v>
+        <v>0.6326667310909944</v>
       </c>
     </row>
     <row r="8">
@@ -2476,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.007759872247846861</v>
+        <v>-0.01510939826574014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8989637197904722</v>
+        <v>0.8351919483892996</v>
       </c>
     </row>
     <row r="9">
@@ -2489,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002951592824449824</v>
+        <v>0.0005082533540190904</v>
       </c>
       <c r="C9" t="n">
-        <v>1.507862309863322e-31</v>
+        <v>5.523186940214031e-63</v>
       </c>
     </row>
     <row r="10">
@@ -2502,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.007259828475187685</v>
+        <v>0.009318045851459596</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003395865390176543</v>
+        <v>0.0005769005418445238</v>
       </c>
     </row>
     <row r="11">
@@ -2515,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06436285129175301</v>
+        <v>-0.1471476242561881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3358724318237002</v>
+        <v>0.03854957047195873</v>
       </c>
     </row>
     <row r="12">
@@ -2528,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.756198870728611</v>
+        <v>0.8906240382427038</v>
       </c>
       <c r="C12" t="n">
-        <v>8.247766891095588e-14</v>
+        <v>9.378259424681416e-17</v>
       </c>
     </row>
     <row r="13">
@@ -2541,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5611718389817575</v>
+        <v>0.3233438893440145</v>
       </c>
       <c r="C13" t="n">
-        <v>1.42986587501394e-05</v>
+        <v>0.01918283968089252</v>
       </c>
     </row>
     <row r="14">
@@ -2554,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.487884353871345e-05</v>
+        <v>-5.277077938151113e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002669292170468275</v>
+        <v>0.0007315648589865599</v>
       </c>
     </row>
     <row r="15">
@@ -2567,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.970152775967569e-08</v>
+        <v>-2.601715004066161e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006440640513913652</v>
+        <v>0.09847022484671535</v>
       </c>
     </row>
     <row r="16">
@@ -2580,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01230637753972498</v>
+        <v>-0.02225737430802336</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5949878435926632</v>
+        <v>0.3757770162721117</v>
       </c>
     </row>
     <row r="17">
@@ -2593,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06872185440845599</v>
+        <v>0.09714855839764384</v>
       </c>
       <c r="C17" t="n">
-        <v>1.300009565844633e-05</v>
+        <v>9.802803748726448e-09</v>
       </c>
     </row>
     <row r="18">
@@ -2606,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.39988094359719</v>
+        <v>-1.521627617961461</v>
       </c>
       <c r="C18" t="n">
-        <v>1.911453450949699e-06</v>
+        <v>1.303230018931014e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2619,23 +2541,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006499629683727909</v>
+        <v>-0.005041836868323587</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07641002751006554</v>
+        <v>0.2082212985863918</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002571400819298566</v>
+        <v>-0.002110454246813226</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2369596089839345</v>
+        <v>0.3741804811386299</v>
       </c>
     </row>
     <row r="21">
@@ -2645,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.635921693225402</v>
+        <v>0.3655542296460046</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009197113497196343</v>
+        <v>0.3231620229801482</v>
       </c>
     </row>
     <row r="22">
@@ -2658,23 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.580154034639268</v>
+        <v>0.1409544897241429</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0001313133123796946</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.137600527562286</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3.034587995732667e-05</v>
+        <v>0.6605821573691142</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2720,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1866488306935667</v>
+        <v>-0.9153581566427168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9091794634438971</v>
+        <v>0.5202284599491819</v>
       </c>
     </row>
     <row r="3">
@@ -2733,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8654707397070988</v>
+        <v>1.406386862406979</v>
       </c>
       <c r="C3" t="n">
-        <v>0.58502977884025</v>
+        <v>0.2991970288468754</v>
       </c>
     </row>
     <row r="4">
@@ -2746,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8828064219076952</v>
+        <v>1.542004685960225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5787289559973319</v>
+        <v>0.2578551239398247</v>
       </c>
     </row>
     <row r="5">
@@ -2759,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3806724764191622</v>
+        <v>0.1514086499771623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8103903011874417</v>
+        <v>0.9111581567845909</v>
       </c>
     </row>
     <row r="6">
@@ -2772,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1891930353223735</v>
+        <v>0.4736916651913417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9051020985910339</v>
+        <v>0.7271063583215063</v>
       </c>
     </row>
     <row r="7">
@@ -2785,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2482935864732389</v>
+        <v>0.7038618960575357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8760033591651533</v>
+        <v>0.6055185249715472</v>
       </c>
     </row>
     <row r="8">
@@ -2798,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02804481420227016</v>
+        <v>-0.03607724471865951</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6539112644517406</v>
+        <v>0.6177732058886267</v>
       </c>
     </row>
     <row r="9">
@@ -2811,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002972150058849409</v>
+        <v>0.0005027049049543321</v>
       </c>
       <c r="C9" t="n">
-        <v>3.270922950740888e-32</v>
+        <v>5.877139484504336e-61</v>
       </c>
     </row>
     <row r="10">
@@ -2824,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006334289574799862</v>
+        <v>0.006133477353136293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01035579385531181</v>
+        <v>0.02297144592282518</v>
       </c>
     </row>
     <row r="11">
@@ -2837,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.08779067050221795</v>
+        <v>-0.19568749936007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1902843249785221</v>
+        <v>0.006268444883292808</v>
       </c>
     </row>
     <row r="12">
@@ -2850,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7626260264049878</v>
+        <v>0.7712764181279149</v>
       </c>
       <c r="C12" t="n">
-        <v>8.107566078781508e-14</v>
+        <v>6.918746823024867e-13</v>
       </c>
     </row>
     <row r="13">
@@ -2863,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5939980271226394</v>
+        <v>0.3068252796891577</v>
       </c>
       <c r="C13" t="n">
-        <v>4.650933483815701e-06</v>
+        <v>0.0267019718485558</v>
       </c>
     </row>
     <row r="14">
@@ -2876,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.275559971272632e-05</v>
+        <v>-3.621887733156215e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004570141884242015</v>
+        <v>0.02038080667909046</v>
       </c>
     </row>
     <row r="15">
@@ -2889,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.598642207555698e-08</v>
+        <v>-2.506817598779832e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01357725775553501</v>
+        <v>0.1142897276652645</v>
       </c>
     </row>
     <row r="16">
@@ -2902,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01077295700264488</v>
+        <v>0.001168203016942514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6414523039352922</v>
+        <v>0.9631831162568707</v>
       </c>
     </row>
     <row r="17">
@@ -2915,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06529681810200735</v>
+        <v>0.08399460100099959</v>
       </c>
       <c r="C17" t="n">
-        <v>3.48001979167022e-05</v>
+        <v>6.859583663380961e-07</v>
       </c>
     </row>
     <row r="18">
@@ -2928,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.597278185349486</v>
+        <v>-1.375296981638557</v>
       </c>
       <c r="C18" t="n">
-        <v>6.983729029161055e-08</v>
+        <v>1.530577196407345e-05</v>
       </c>
     </row>
     <row r="19">
@@ -2941,23 +2850,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003867797140635839</v>
+        <v>-0.0106764399941918</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2907971076616618</v>
+        <v>0.007510706155539595</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00222178668467501</v>
+        <v>-0.002775306013454746</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30715701875988</v>
+        <v>0.243688903418413</v>
       </c>
     </row>
     <row r="21">
@@ -2967,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.308265347871746</v>
+        <v>0.3407404490863728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.007973951482912812</v>
+        <v>0.3544971224137421</v>
       </c>
     </row>
     <row r="22">
@@ -2980,23 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.206351718075186</v>
+        <v>0.05623511295582849</v>
       </c>
       <c r="C22" t="n">
-        <v>0.003346661742355781</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.009392272295159</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0002119423778912379</v>
+        <v>0.8627339284275882</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7109790778000366</v>
+        <v>-0.9278851217479852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.612178298339087</v>
+        <v>0.5130861765126264</v>
       </c>
     </row>
     <row r="3">
@@ -3055,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.430890511671515</v>
+        <v>1.448164257402054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2872210802094739</v>
+        <v>0.283830985550421</v>
       </c>
     </row>
     <row r="4">
@@ -3068,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.481487298259201</v>
+        <v>1.562299395734232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2725257737192569</v>
+        <v>0.2503524233673374</v>
       </c>
     </row>
     <row r="5">
@@ -3081,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1896790640845526</v>
+        <v>0.1886359828496159</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8879546635113833</v>
+        <v>0.8891515736204705</v>
       </c>
     </row>
     <row r="6">
@@ -3094,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4331440827198926</v>
+        <v>0.4965964798122867</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7477027901587509</v>
+        <v>0.7137644645988959</v>
       </c>
     </row>
     <row r="7">
@@ -3107,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9389037144757437</v>
+        <v>0.8001146428708004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4873243042716568</v>
+        <v>0.5560207759731045</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01541882631427568</v>
+        <v>-0.03576425398864534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7995098003024425</v>
+        <v>0.6179464340662053</v>
       </c>
     </row>
     <row r="9">
@@ -3133,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002981713167473047</v>
+        <v>0.0004868006131975214</v>
       </c>
       <c r="C9" t="n">
-        <v>3.61186521104255e-32</v>
+        <v>8.545356079997052e-59</v>
       </c>
     </row>
     <row r="10">
@@ -3146,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.006739022047246698</v>
+        <v>0.006430450655739865</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006456391538696283</v>
+        <v>0.01742443454492013</v>
       </c>
     </row>
     <row r="11">
@@ -3159,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05819254651467434</v>
+        <v>-0.112377653143779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3813699282469896</v>
+        <v>0.1145164146710863</v>
       </c>
     </row>
     <row r="12">
@@ -3172,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7591316028967067</v>
+        <v>0.7749912904964009</v>
       </c>
       <c r="C12" t="n">
-        <v>5.767609304865017e-14</v>
+        <v>5.268240631013593e-13</v>
       </c>
     </row>
     <row r="13">
@@ -3185,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5912804767403922</v>
+        <v>0.3386574319353107</v>
       </c>
       <c r="C13" t="n">
-        <v>4.999353073669867e-06</v>
+        <v>0.01488396105932946</v>
       </c>
     </row>
     <row r="14">
@@ -3198,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.152359402300327e-05</v>
+        <v>-4.356678811377666e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005923262366141074</v>
+        <v>0.005118195845825989</v>
       </c>
     </row>
     <row r="15">
@@ -3211,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.373678017637522e-08</v>
+        <v>-1.497312725482666e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0209160148884922</v>
+        <v>0.3450190810519501</v>
       </c>
     </row>
     <row r="16">
@@ -3224,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.005865281877440498</v>
+        <v>0.004288376752578158</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7996533257841374</v>
+        <v>0.864657277860603</v>
       </c>
     </row>
     <row r="17">
@@ -3237,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06180287986099717</v>
+        <v>0.08783744284477708</v>
       </c>
       <c r="C17" t="n">
-        <v>8.602499475594296e-05</v>
+        <v>2.314154223603819e-07</v>
       </c>
     </row>
     <row r="18">
@@ -3250,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.367574702686514</v>
+        <v>-1.682543718511375</v>
       </c>
       <c r="C18" t="n">
-        <v>3.71237068451157e-06</v>
+        <v>1.066319124183302e-07</v>
       </c>
     </row>
     <row r="19">
@@ -3263,23 +3159,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.006512838624005921</v>
+        <v>-0.008344702594026124</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07424103167412208</v>
+        <v>0.03619207346793935</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>StreetLength</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.002955802322973483</v>
+        <v>-0.00361065350548612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1714671300016705</v>
+        <v>0.1263681407258456</v>
       </c>
     </row>
     <row r="21">
@@ -3289,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.571017534043273</v>
+        <v>0.2061999233882346</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001457477463861389</v>
+        <v>0.5754728244946443</v>
       </c>
     </row>
     <row r="22">
@@ -3302,23 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.327216620177751</v>
+        <v>-0.06945734914697155</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001351758481286366</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LU_Urban</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-1.045157540172502</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0001392285037595215</v>
+        <v>0.8326319144612984</v>
       </c>
     </row>
   </sheetData>
